--- a/data/trans_dic/P16B10-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B10-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -710,7 +711,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,11; 100,0</t>
+          <t>73,04; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>86,68; 100,0</t>
+          <t>86,78; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>92,9; 100,0</t>
+          <t>92,35; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1030,7 +1031,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,89; 100,0</t>
+          <t>76,76; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1045,7 +1046,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,13; 99,09</t>
+          <t>91,16; 99,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>79,83; 100,0</t>
+          <t>78,4; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1140,7 +1141,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>83,71; 100,0</t>
+          <t>82,16; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,12 +1151,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>90,17; 100,0</t>
+          <t>85,17; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,44; 100,0</t>
+          <t>86,05; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1165,7 +1166,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>94,13; 100,0</t>
+          <t>93,81; 100,0</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1251,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>90,38; 100,0</t>
+          <t>91,44; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1265,7 +1266,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>91,75; 100,0</t>
+          <t>91,22; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,86; 99,56</t>
+          <t>96,07; 99,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1360,7 +1361,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>91,87; 98,72</t>
+          <t>92,95; 98,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1370,12 +1371,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,56; 100,0</t>
+          <t>96,27; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,56; 98,99</t>
+          <t>95,59; 98,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1385,7 +1386,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>98,38; 100,0</t>
+          <t>98,15; 100,0</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para el corazón fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22167</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22436</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24212</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9718</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16259</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31885</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24498</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>40471</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20252; 22167</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20497; 22436</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>22210; 24212</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7897; 9718</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>888; 2061</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12666; 17342</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29924; 31885</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22556; 24498</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>36061; 41554</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>12784</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15684</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17218</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6611</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2815</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5356</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19396</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18499</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22574</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11060; 12784</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13568; 15684</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15404; 17218</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4590; 6611</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1213; 2815</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3415; 5356</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17459; 19396</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16310; 18499</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20623; 22574</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33411</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37462</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>36703</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5956</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9752</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8646</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>39367</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47215</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>45350</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31687; 33411</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35475; 37462</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34809; 36703</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4383; 5956</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7925; 9752</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6636; 8646</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37617; 39367</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>45209; 47215</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>43380; 45350</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>85821</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>67710</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>79344</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>23140</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21826</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>28578</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>108961</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>89536</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>107922</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>81069; 87784</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>65716; 67710</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>77420; 79344</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>19246; 25072</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>19940; 21826</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>26562; 28578</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>102880; 111788</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>87541; 89536</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>105952; 107922</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>17812</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>30055</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>42931</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>32584</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>62982</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>39131</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>50396</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>93038</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>82062</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14573; 18589</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28080; 30055</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>41221; 42931</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27746; 33770</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>60973; 62982</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>34139; 40085</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>45057; 52359</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>91012; 93038</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>77878; 83016</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5274</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>82940</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>69969</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>85091</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>83761</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>75243</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>85091</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>188; 821</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3362; 5274</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>77903; 85193</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>67939; 69969</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>82796; 85091</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>78464; 86014</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>73185; 75243</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>82796; 85091</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>172817</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>178622</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>200408</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>160949</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>169406</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>183062</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>333765</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>348028</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>383469</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>168664; 174792</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>176558; 178622</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>198495; 200408</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>154600; 164461</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>167362; 169406</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>178204; 185099</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>326786; 338266</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>345966; 348028</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>378372; 385506</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16B10-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B10-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
